--- a/Week 1/day-5-deeper-into-formulas-and-functions/relative-absolute-reference-pulse-check.xlsx
+++ b/Week 1/day-5-deeper-into-formulas-and-functions/relative-absolute-reference-pulse-check.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9189"/>
   </bookViews>
   <sheets>
     <sheet name="raincoat-commission" sheetId="1" r:id="rId1"/>
@@ -190,13 +190,7 @@
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -217,6 +211,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,19 +500,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69140625" customWidth="1"/>
+    <col min="4" max="4" width="9.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -523,7 +521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -537,7 +535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -551,7 +549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -565,7 +563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -579,7 +577,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -590,18 +588,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -616,75 +614,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="3">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C2" s="2">
         <v>15</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>25</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>30</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>0.03</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5">
+      <c r="C3" s="13"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="24"/>
+      <c r="B4" s="3">
         <v>0.05</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="24"/>
+      <c r="B5" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="24"/>
+      <c r="B6" s="3">
         <v>0.09</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -699,19 +695,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69140625" customWidth="1"/>
+    <col min="4" max="4" width="9.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -722,7 +716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -736,7 +730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -750,7 +744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -764,7 +758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -778,7 +772,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -789,11 +783,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <f>B3*B$7</f>
         <v>18.8</v>
       </c>
@@ -806,7 +800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -823,7 +817,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -850,120 +844,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="3">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C2" s="2">
         <v>15</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>25</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>30</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>0.03</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <f>$B3*C$2</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <f t="shared" ref="D3:F6" si="0">$B3*D$2</f>
         <v>0.75</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="24"/>
+      <c r="B4" s="3">
         <v>0.05</v>
       </c>
-      <c r="C4" s="19">
-        <f t="shared" ref="C4:F6" si="1">$B4*C$2</f>
+      <c r="C4" s="17">
+        <f t="shared" ref="C4:C6" si="1">$B4*C$2</f>
         <v>0.75</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="24"/>
+      <c r="B5" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <f t="shared" si="0"/>
         <v>1.7500000000000002</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <f t="shared" si="0"/>
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="24"/>
+      <c r="B6" s="3">
         <v>0.09</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <f t="shared" si="1"/>
         <v>1.3499999999999999</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="21">
         <f t="shared" si="0"/>
         <v>2.6999999999999997</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="22">
         <f t="shared" si="0"/>
         <v>3.15</v>
       </c>
